--- a/ams/cases/npcc/npcc_uced.xlsx
+++ b/ams/cases/npcc/npcc_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/npcc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA57456-B93B-2940-9BFA-2C1200799ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8809101E-2D8F-3A4A-88C6-7FB9E8475D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -23,20 +23,19 @@
     <sheet name="GCost" sheetId="7" r:id="rId8"/>
     <sheet name="EDTSlot" sheetId="9" r:id="rId9"/>
     <sheet name="UCTSlot" sheetId="10" r:id="rId10"/>
-    <sheet name="DCost" sheetId="11" r:id="rId11"/>
-    <sheet name="SFR" sheetId="12" r:id="rId12"/>
-    <sheet name="SFRCost" sheetId="13" r:id="rId13"/>
-    <sheet name="SR" sheetId="14" r:id="rId14"/>
-    <sheet name="SRCost" sheetId="15" r:id="rId15"/>
-    <sheet name="NSR" sheetId="16" r:id="rId16"/>
-    <sheet name="NSRCost" sheetId="17" r:id="rId17"/>
+    <sheet name="SFR" sheetId="12" r:id="rId11"/>
+    <sheet name="SFRCost" sheetId="13" r:id="rId12"/>
+    <sheet name="SR" sheetId="14" r:id="rId13"/>
+    <sheet name="SRCost" sheetId="15" r:id="rId14"/>
+    <sheet name="NSR" sheetId="16" r:id="rId15"/>
+    <sheet name="NSRCost" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="1188">
   <si>
     <t>idx</t>
   </si>
@@ -2841,261 +2840,6 @@
   </si>
   <si>
     <t>UCT24</t>
-  </si>
-  <si>
-    <t>load</t>
-  </si>
-  <si>
-    <t>cd</t>
-  </si>
-  <si>
-    <t>Dcost_1</t>
-  </si>
-  <si>
-    <t>Dcost_2</t>
-  </si>
-  <si>
-    <t>Dcost_3</t>
-  </si>
-  <si>
-    <t>Dcost_4</t>
-  </si>
-  <si>
-    <t>Dcost_5</t>
-  </si>
-  <si>
-    <t>Dcost_6</t>
-  </si>
-  <si>
-    <t>Dcost_7</t>
-  </si>
-  <si>
-    <t>Dcost_8</t>
-  </si>
-  <si>
-    <t>Dcost_9</t>
-  </si>
-  <si>
-    <t>Dcost_10</t>
-  </si>
-  <si>
-    <t>Dcost_11</t>
-  </si>
-  <si>
-    <t>Dcost_12</t>
-  </si>
-  <si>
-    <t>Dcost_13</t>
-  </si>
-  <si>
-    <t>Dcost_14</t>
-  </si>
-  <si>
-    <t>Dcost_15</t>
-  </si>
-  <si>
-    <t>Dcost_16</t>
-  </si>
-  <si>
-    <t>Dcost_17</t>
-  </si>
-  <si>
-    <t>Dcost_18</t>
-  </si>
-  <si>
-    <t>Dcost_19</t>
-  </si>
-  <si>
-    <t>Dcost_20</t>
-  </si>
-  <si>
-    <t>Dcost_21</t>
-  </si>
-  <si>
-    <t>Dcost_22</t>
-  </si>
-  <si>
-    <t>Dcost_23</t>
-  </si>
-  <si>
-    <t>Dcost_24</t>
-  </si>
-  <si>
-    <t>Dcost_25</t>
-  </si>
-  <si>
-    <t>Dcost_26</t>
-  </si>
-  <si>
-    <t>Dcost_27</t>
-  </si>
-  <si>
-    <t>Dcost_28</t>
-  </si>
-  <si>
-    <t>Dcost_29</t>
-  </si>
-  <si>
-    <t>Dcost_30</t>
-  </si>
-  <si>
-    <t>Dcost_31</t>
-  </si>
-  <si>
-    <t>Dcost_32</t>
-  </si>
-  <si>
-    <t>Dcost_33</t>
-  </si>
-  <si>
-    <t>Dcost_34</t>
-  </si>
-  <si>
-    <t>Dcost_35</t>
-  </si>
-  <si>
-    <t>Dcost_36</t>
-  </si>
-  <si>
-    <t>Dcost_37</t>
-  </si>
-  <si>
-    <t>Dcost_38</t>
-  </si>
-  <si>
-    <t>Dcost_39</t>
-  </si>
-  <si>
-    <t>Dcost_40</t>
-  </si>
-  <si>
-    <t>Dcost_41</t>
-  </si>
-  <si>
-    <t>Dcost_42</t>
-  </si>
-  <si>
-    <t>Dcost_43</t>
-  </si>
-  <si>
-    <t>Dcost_44</t>
-  </si>
-  <si>
-    <t>Dcost_45</t>
-  </si>
-  <si>
-    <t>Dcost_46</t>
-  </si>
-  <si>
-    <t>Dcost_47</t>
-  </si>
-  <si>
-    <t>Dcost_48</t>
-  </si>
-  <si>
-    <t>Dcost_49</t>
-  </si>
-  <si>
-    <t>Dcost_50</t>
-  </si>
-  <si>
-    <t>Dcost_51</t>
-  </si>
-  <si>
-    <t>Dcost_52</t>
-  </si>
-  <si>
-    <t>Dcost_53</t>
-  </si>
-  <si>
-    <t>Dcost_54</t>
-  </si>
-  <si>
-    <t>Dcost_55</t>
-  </si>
-  <si>
-    <t>Dcost_56</t>
-  </si>
-  <si>
-    <t>Dcost_57</t>
-  </si>
-  <si>
-    <t>Dcost_58</t>
-  </si>
-  <si>
-    <t>Dcost_59</t>
-  </si>
-  <si>
-    <t>Dcost_60</t>
-  </si>
-  <si>
-    <t>Dcost_61</t>
-  </si>
-  <si>
-    <t>Dcost_62</t>
-  </si>
-  <si>
-    <t>Dcost_63</t>
-  </si>
-  <si>
-    <t>Dcost_64</t>
-  </si>
-  <si>
-    <t>Dcost_65</t>
-  </si>
-  <si>
-    <t>Dcost_66</t>
-  </si>
-  <si>
-    <t>Dcost_67</t>
-  </si>
-  <si>
-    <t>Dcost_68</t>
-  </si>
-  <si>
-    <t>Dcost_69</t>
-  </si>
-  <si>
-    <t>Dcost_70</t>
-  </si>
-  <si>
-    <t>Dcost_71</t>
-  </si>
-  <si>
-    <t>Dcost_72</t>
-  </si>
-  <si>
-    <t>Dcost_73</t>
-  </si>
-  <si>
-    <t>Dcost_74</t>
-  </si>
-  <si>
-    <t>Dcost_75</t>
-  </si>
-  <si>
-    <t>Dcost_76</t>
-  </si>
-  <si>
-    <t>Dcost_77</t>
-  </si>
-  <si>
-    <t>Dcost_78</t>
-  </si>
-  <si>
-    <t>Dcost_79</t>
-  </si>
-  <si>
-    <t>Dcost_80</t>
-  </si>
-  <si>
-    <t>Dcost_81</t>
-  </si>
-  <si>
-    <t>Dcost_82</t>
-  </si>
-  <si>
-    <t>Dcost_83</t>
   </si>
   <si>
     <t>du</t>
@@ -3921,7 +3665,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3944,22 +3688,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3981,12 +3714,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4325,7 +4052,7 @@
         <v>856</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1272</v>
+        <v>1187</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -4723,1707 +4450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65B026E-9968-2043-8652-0F7401D56F73}">
-  <dimension ref="A1:F84"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="A1:F84"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>935</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>937</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>937</v>
-      </c>
-      <c r="E2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>938</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>938</v>
-      </c>
-      <c r="E3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>939</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>939</v>
-      </c>
-      <c r="E4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>940</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>940</v>
-      </c>
-      <c r="E5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>941</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>941</v>
-      </c>
-      <c r="E6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>942</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>942</v>
-      </c>
-      <c r="E7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>943</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>943</v>
-      </c>
-      <c r="E8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>944</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>944</v>
-      </c>
-      <c r="E9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>945</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>945</v>
-      </c>
-      <c r="E10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="E11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>947</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>947</v>
-      </c>
-      <c r="E12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="E13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>949</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>949</v>
-      </c>
-      <c r="E14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="E15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>951</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>951</v>
-      </c>
-      <c r="E16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="E17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="E18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>954</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>954</v>
-      </c>
-      <c r="E19" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>955</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>955</v>
-      </c>
-      <c r="E20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>956</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>956</v>
-      </c>
-      <c r="E21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="E22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>958</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>958</v>
-      </c>
-      <c r="E23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="E24" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>960</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>960</v>
-      </c>
-      <c r="E25" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>961</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>961</v>
-      </c>
-      <c r="E26" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>962</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>962</v>
-      </c>
-      <c r="E27" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="E28" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>964</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>964</v>
-      </c>
-      <c r="E29" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>965</v>
-      </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>965</v>
-      </c>
-      <c r="E30" t="s">
-        <v>158</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
-        <v>29</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="E31" t="s">
-        <v>159</v>
-      </c>
-      <c r="F31" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
-        <v>30</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>967</v>
-      </c>
-      <c r="C32" s="5">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>967</v>
-      </c>
-      <c r="E32" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
-        <v>31</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>968</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>968</v>
-      </c>
-      <c r="E33" t="s">
-        <v>161</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
-        <v>32</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>969</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>969</v>
-      </c>
-      <c r="E34" t="s">
-        <v>162</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
-        <v>33</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>970</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>970</v>
-      </c>
-      <c r="E35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="10">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>971</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>971</v>
-      </c>
-      <c r="E36" t="s">
-        <v>164</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
-        <v>35</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>972</v>
-      </c>
-      <c r="C37" s="5">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>972</v>
-      </c>
-      <c r="E37" t="s">
-        <v>165</v>
-      </c>
-      <c r="F37" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="10">
-        <v>36</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>973</v>
-      </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>973</v>
-      </c>
-      <c r="E38" t="s">
-        <v>166</v>
-      </c>
-      <c r="F38" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="10">
-        <v>37</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>974</v>
-      </c>
-      <c r="C39" s="5">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>974</v>
-      </c>
-      <c r="E39" t="s">
-        <v>167</v>
-      </c>
-      <c r="F39" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="10">
-        <v>38</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>975</v>
-      </c>
-      <c r="C40" s="5">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>975</v>
-      </c>
-      <c r="E40" t="s">
-        <v>168</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="10">
-        <v>39</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>976</v>
-      </c>
-      <c r="C41" s="5">
-        <v>1</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>976</v>
-      </c>
-      <c r="E41" t="s">
-        <v>169</v>
-      </c>
-      <c r="F41" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="10">
-        <v>40</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="C42" s="5">
-        <v>1</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="E42" t="s">
-        <v>170</v>
-      </c>
-      <c r="F42" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="10">
-        <v>41</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="C43" s="5">
-        <v>1</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="E43" t="s">
-        <v>171</v>
-      </c>
-      <c r="F43" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="10">
-        <v>42</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="C44" s="5">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="E44" t="s">
-        <v>172</v>
-      </c>
-      <c r="F44" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="10">
-        <v>43</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="C45" s="5">
-        <v>1</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="E45" t="s">
-        <v>173</v>
-      </c>
-      <c r="F45" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="10">
-        <v>44</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="E46" t="s">
-        <v>174</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="10">
-        <v>45</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="C47" s="5">
-        <v>1</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="E47" t="s">
-        <v>175</v>
-      </c>
-      <c r="F47" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="10">
-        <v>46</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="C48" s="5">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="E48" t="s">
-        <v>176</v>
-      </c>
-      <c r="F48" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="10">
-        <v>47</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="C49" s="5">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="E49" t="s">
-        <v>177</v>
-      </c>
-      <c r="F49" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="10">
-        <v>48</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="C50" s="5">
-        <v>1</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="E50" t="s">
-        <v>178</v>
-      </c>
-      <c r="F50" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="10">
-        <v>49</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>986</v>
-      </c>
-      <c r="C51" s="5">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>986</v>
-      </c>
-      <c r="E51" t="s">
-        <v>179</v>
-      </c>
-      <c r="F51" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="10">
-        <v>50</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="C52" s="5">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="E52" t="s">
-        <v>180</v>
-      </c>
-      <c r="F52" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="10">
-        <v>51</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="C53" s="5">
-        <v>1</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="E53" t="s">
-        <v>181</v>
-      </c>
-      <c r="F53" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="10">
-        <v>52</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="C54" s="5">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="E54" t="s">
-        <v>182</v>
-      </c>
-      <c r="F54" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="10">
-        <v>53</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="C55" s="5">
-        <v>1</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="E55" t="s">
-        <v>183</v>
-      </c>
-      <c r="F55" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="10">
-        <v>54</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>991</v>
-      </c>
-      <c r="C56" s="5">
-        <v>1</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>991</v>
-      </c>
-      <c r="E56" t="s">
-        <v>184</v>
-      </c>
-      <c r="F56" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="10">
-        <v>55</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="C57" s="5">
-        <v>1</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="E57" t="s">
-        <v>185</v>
-      </c>
-      <c r="F57" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="10">
-        <v>56</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="C58" s="5">
-        <v>1</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="E58" t="s">
-        <v>186</v>
-      </c>
-      <c r="F58" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="10">
-        <v>57</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>994</v>
-      </c>
-      <c r="C59" s="5">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>994</v>
-      </c>
-      <c r="E59" t="s">
-        <v>187</v>
-      </c>
-      <c r="F59" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="10">
-        <v>58</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>995</v>
-      </c>
-      <c r="C60" s="5">
-        <v>1</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>995</v>
-      </c>
-      <c r="E60" t="s">
-        <v>188</v>
-      </c>
-      <c r="F60" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="10">
-        <v>59</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>996</v>
-      </c>
-      <c r="C61" s="5">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>996</v>
-      </c>
-      <c r="E61" t="s">
-        <v>189</v>
-      </c>
-      <c r="F61" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="10">
-        <v>60</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>997</v>
-      </c>
-      <c r="C62" s="5">
-        <v>1</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>997</v>
-      </c>
-      <c r="E62" t="s">
-        <v>190</v>
-      </c>
-      <c r="F62" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="10">
-        <v>61</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>998</v>
-      </c>
-      <c r="C63" s="5">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>998</v>
-      </c>
-      <c r="E63" t="s">
-        <v>191</v>
-      </c>
-      <c r="F63" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="10">
-        <v>62</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>999</v>
-      </c>
-      <c r="C64" s="5">
-        <v>1</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>999</v>
-      </c>
-      <c r="E64" t="s">
-        <v>192</v>
-      </c>
-      <c r="F64" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="10">
-        <v>63</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C65" s="5">
-        <v>1</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E65" t="s">
-        <v>193</v>
-      </c>
-      <c r="F65" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="10">
-        <v>64</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C66" s="5">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E66" t="s">
-        <v>194</v>
-      </c>
-      <c r="F66" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="10">
-        <v>65</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C67" s="5">
-        <v>1</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E67" t="s">
-        <v>195</v>
-      </c>
-      <c r="F67" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="10">
-        <v>66</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C68" s="5">
-        <v>1</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E68" t="s">
-        <v>196</v>
-      </c>
-      <c r="F68" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="10">
-        <v>67</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C69" s="5">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E69" t="s">
-        <v>197</v>
-      </c>
-      <c r="F69" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="10">
-        <v>68</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C70" s="5">
-        <v>1</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E70" t="s">
-        <v>198</v>
-      </c>
-      <c r="F70" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="10">
-        <v>69</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C71" s="5">
-        <v>1</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E71" t="s">
-        <v>199</v>
-      </c>
-      <c r="F71" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="10">
-        <v>70</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C72" s="5">
-        <v>1</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E72" t="s">
-        <v>200</v>
-      </c>
-      <c r="F72" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="10">
-        <v>71</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C73" s="5">
-        <v>1</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E73" t="s">
-        <v>201</v>
-      </c>
-      <c r="F73" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="10">
-        <v>72</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C74" s="5">
-        <v>1</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E74" t="s">
-        <v>202</v>
-      </c>
-      <c r="F74" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="10">
-        <v>73</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C75" s="5">
-        <v>1</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E75" t="s">
-        <v>203</v>
-      </c>
-      <c r="F75" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="10">
-        <v>74</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C76" s="5">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E76" t="s">
-        <v>204</v>
-      </c>
-      <c r="F76" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="10">
-        <v>75</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C77" s="5">
-        <v>1</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E77" t="s">
-        <v>205</v>
-      </c>
-      <c r="F77" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="10">
-        <v>76</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C78" s="5">
-        <v>1</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E78" t="s">
-        <v>206</v>
-      </c>
-      <c r="F78" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="10">
-        <v>77</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C79" s="5">
-        <v>1</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E79" t="s">
-        <v>207</v>
-      </c>
-      <c r="F79" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="10">
-        <v>78</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C80" s="5">
-        <v>1</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E80" t="s">
-        <v>208</v>
-      </c>
-      <c r="F80" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="10">
-        <v>79</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C81" s="5">
-        <v>1</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E81" t="s">
-        <v>209</v>
-      </c>
-      <c r="F81" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="10">
-        <v>80</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C82" s="5">
-        <v>1</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E82" t="s">
-        <v>210</v>
-      </c>
-      <c r="F82" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="10">
-        <v>81</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C83" s="5">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E83" t="s">
-        <v>211</v>
-      </c>
-      <c r="F83" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="10">
-        <v>82</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C84" s="5">
-        <v>1</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E84" t="s">
-        <v>212</v>
-      </c>
-      <c r="F84" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFEA7AD-C8C7-A94F-8F3F-D38997E88FC6}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6442,10 +4473,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1020</v>
+        <v>935</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>1021</v>
+        <v>936</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>11</v>
@@ -6453,16 +4484,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1023</v>
+        <v>938</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>909</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1023</v>
+        <v>938</v>
       </c>
       <c r="E2" s="5">
         <v>0.02</v>
@@ -6479,13 +4510,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1024</v>
+        <v>939</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>909</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1024</v>
+        <v>939</v>
       </c>
       <c r="E3" s="5">
         <v>0.02</v>
@@ -6502,7 +4533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4689F27-CBD5-1B41-8EC1-5805A2FC22FC}">
   <dimension ref="A1:E49"/>
   <sheetViews>
@@ -6526,27 +4557,27 @@
         <v>797</v>
       </c>
       <c r="D1" t="s">
-        <v>1025</v>
+        <v>940</v>
       </c>
       <c r="E1" t="s">
-        <v>1026</v>
+        <v>941</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="B2" t="s">
-        <v>1027</v>
+        <v>942</v>
       </c>
       <c r="C2" t="s">
-        <v>1162</v>
+        <v>1077</v>
       </c>
       <c r="D2" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E2" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -6554,798 +4585,798 @@
         <v>909</v>
       </c>
       <c r="B3" t="s">
-        <v>1028</v>
+        <v>943</v>
       </c>
       <c r="C3" t="s">
-        <v>1163</v>
+        <v>1078</v>
       </c>
       <c r="D3" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E3" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1030</v>
+        <v>945</v>
       </c>
       <c r="B4" t="s">
-        <v>1031</v>
+        <v>946</v>
       </c>
       <c r="C4" t="s">
-        <v>1164</v>
+        <v>1079</v>
       </c>
       <c r="D4" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E4" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1033</v>
+        <v>948</v>
       </c>
       <c r="B5" t="s">
-        <v>1034</v>
+        <v>949</v>
       </c>
       <c r="C5" t="s">
-        <v>1165</v>
+        <v>1080</v>
       </c>
       <c r="D5" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E5" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1036</v>
+        <v>951</v>
       </c>
       <c r="B6" t="s">
-        <v>1037</v>
+        <v>952</v>
       </c>
       <c r="C6" t="s">
-        <v>1166</v>
+        <v>1081</v>
       </c>
       <c r="D6" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E6" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1039</v>
+        <v>954</v>
       </c>
       <c r="B7" t="s">
-        <v>1040</v>
+        <v>955</v>
       </c>
       <c r="C7" t="s">
-        <v>1167</v>
+        <v>1082</v>
       </c>
       <c r="D7" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E7" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1042</v>
+        <v>957</v>
       </c>
       <c r="B8" t="s">
-        <v>1043</v>
+        <v>958</v>
       </c>
       <c r="C8" t="s">
-        <v>1168</v>
+        <v>1083</v>
       </c>
       <c r="D8" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E8" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1045</v>
+        <v>960</v>
       </c>
       <c r="B9" t="s">
-        <v>1046</v>
+        <v>961</v>
       </c>
       <c r="C9" t="s">
-        <v>1169</v>
+        <v>1084</v>
       </c>
       <c r="D9" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E9" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1048</v>
+        <v>963</v>
       </c>
       <c r="B10" t="s">
-        <v>1049</v>
+        <v>964</v>
       </c>
       <c r="C10" t="s">
-        <v>1170</v>
+        <v>1085</v>
       </c>
       <c r="D10" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E10" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1051</v>
+        <v>966</v>
       </c>
       <c r="B11" t="s">
-        <v>1052</v>
+        <v>967</v>
       </c>
       <c r="C11" t="s">
-        <v>1171</v>
+        <v>1086</v>
       </c>
       <c r="D11" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E11" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1054</v>
+        <v>969</v>
       </c>
       <c r="B12" t="s">
-        <v>1055</v>
+        <v>970</v>
       </c>
       <c r="C12" t="s">
-        <v>1172</v>
+        <v>1087</v>
       </c>
       <c r="D12" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E12" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1056</v>
+        <v>971</v>
       </c>
       <c r="B13" t="s">
-        <v>1057</v>
+        <v>972</v>
       </c>
       <c r="C13" t="s">
-        <v>1173</v>
+        <v>1088</v>
       </c>
       <c r="D13" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E13" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1058</v>
+        <v>973</v>
       </c>
       <c r="B14" t="s">
-        <v>1059</v>
+        <v>974</v>
       </c>
       <c r="C14" t="s">
-        <v>1174</v>
+        <v>1089</v>
       </c>
       <c r="D14" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E14" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1060</v>
+        <v>975</v>
       </c>
       <c r="B15" t="s">
-        <v>1061</v>
+        <v>976</v>
       </c>
       <c r="C15" t="s">
-        <v>1175</v>
+        <v>1090</v>
       </c>
       <c r="D15" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E15" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1062</v>
+        <v>977</v>
       </c>
       <c r="B16" t="s">
-        <v>1063</v>
+        <v>978</v>
       </c>
       <c r="C16" t="s">
-        <v>1176</v>
+        <v>1091</v>
       </c>
       <c r="D16" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E16" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1064</v>
+        <v>979</v>
       </c>
       <c r="B17" t="s">
-        <v>1065</v>
+        <v>980</v>
       </c>
       <c r="C17" t="s">
-        <v>1177</v>
+        <v>1092</v>
       </c>
       <c r="D17" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E17" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1066</v>
+        <v>981</v>
       </c>
       <c r="B18" t="s">
-        <v>1067</v>
+        <v>982</v>
       </c>
       <c r="C18" t="s">
-        <v>1178</v>
+        <v>1093</v>
       </c>
       <c r="D18" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E18" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1068</v>
+        <v>983</v>
       </c>
       <c r="B19" t="s">
-        <v>1069</v>
+        <v>984</v>
       </c>
       <c r="C19" t="s">
-        <v>1179</v>
+        <v>1094</v>
       </c>
       <c r="D19" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E19" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1070</v>
+        <v>985</v>
       </c>
       <c r="B20" t="s">
-        <v>1071</v>
+        <v>986</v>
       </c>
       <c r="C20" t="s">
-        <v>1180</v>
+        <v>1095</v>
       </c>
       <c r="D20" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E20" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1072</v>
+        <v>987</v>
       </c>
       <c r="B21" t="s">
-        <v>1073</v>
+        <v>988</v>
       </c>
       <c r="C21" t="s">
-        <v>1181</v>
+        <v>1096</v>
       </c>
       <c r="D21" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E21" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1074</v>
+        <v>989</v>
       </c>
       <c r="B22" t="s">
-        <v>1075</v>
+        <v>990</v>
       </c>
       <c r="C22" t="s">
-        <v>1144</v>
+        <v>1059</v>
       </c>
       <c r="D22" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E22" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1076</v>
+        <v>991</v>
       </c>
       <c r="B23" t="s">
-        <v>1077</v>
+        <v>992</v>
       </c>
       <c r="C23" t="s">
-        <v>1145</v>
+        <v>1060</v>
       </c>
       <c r="D23" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E23" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1078</v>
+        <v>993</v>
       </c>
       <c r="B24" t="s">
-        <v>1079</v>
+        <v>994</v>
       </c>
       <c r="C24" t="s">
-        <v>1146</v>
+        <v>1061</v>
       </c>
       <c r="D24" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E24" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1080</v>
+        <v>995</v>
       </c>
       <c r="B25" t="s">
-        <v>1081</v>
+        <v>996</v>
       </c>
       <c r="C25" t="s">
-        <v>1147</v>
+        <v>1062</v>
       </c>
       <c r="D25" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E25" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1082</v>
+        <v>997</v>
       </c>
       <c r="B26" t="s">
-        <v>1083</v>
+        <v>998</v>
       </c>
       <c r="C26" t="s">
-        <v>1148</v>
+        <v>1063</v>
       </c>
       <c r="D26" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E26" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1084</v>
+        <v>999</v>
       </c>
       <c r="B27" t="s">
-        <v>1085</v>
+        <v>1000</v>
       </c>
       <c r="C27" t="s">
-        <v>1149</v>
+        <v>1064</v>
       </c>
       <c r="D27" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E27" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1086</v>
+        <v>1001</v>
       </c>
       <c r="B28" t="s">
-        <v>1087</v>
+        <v>1002</v>
       </c>
       <c r="C28" t="s">
-        <v>1150</v>
+        <v>1065</v>
       </c>
       <c r="D28" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E28" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1088</v>
+        <v>1003</v>
       </c>
       <c r="B29" t="s">
-        <v>1089</v>
+        <v>1004</v>
       </c>
       <c r="C29" t="s">
-        <v>1151</v>
+        <v>1066</v>
       </c>
       <c r="D29" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E29" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1090</v>
+        <v>1005</v>
       </c>
       <c r="B30" t="s">
-        <v>1091</v>
+        <v>1006</v>
       </c>
       <c r="C30" t="s">
-        <v>1152</v>
+        <v>1067</v>
       </c>
       <c r="D30" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E30" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1092</v>
+        <v>1007</v>
       </c>
       <c r="B31" t="s">
-        <v>1093</v>
+        <v>1008</v>
       </c>
       <c r="C31" t="s">
-        <v>1029</v>
+        <v>944</v>
       </c>
       <c r="D31" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E31" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1094</v>
+        <v>1009</v>
       </c>
       <c r="B32" t="s">
-        <v>1095</v>
+        <v>1010</v>
       </c>
       <c r="C32" t="s">
-        <v>1153</v>
+        <v>1068</v>
       </c>
       <c r="D32" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E32" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1096</v>
+        <v>1011</v>
       </c>
       <c r="B33" t="s">
-        <v>1097</v>
+        <v>1012</v>
       </c>
       <c r="C33" t="s">
-        <v>1032</v>
+        <v>947</v>
       </c>
       <c r="D33" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E33" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1098</v>
+        <v>1013</v>
       </c>
       <c r="B34" t="s">
-        <v>1099</v>
+        <v>1014</v>
       </c>
       <c r="C34" t="s">
-        <v>1035</v>
+        <v>950</v>
       </c>
       <c r="D34" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E34" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1100</v>
+        <v>1015</v>
       </c>
       <c r="B35" t="s">
-        <v>1101</v>
+        <v>1016</v>
       </c>
       <c r="C35" t="s">
-        <v>1038</v>
+        <v>953</v>
       </c>
       <c r="D35" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E35" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1102</v>
+        <v>1017</v>
       </c>
       <c r="B36" t="s">
-        <v>1103</v>
+        <v>1018</v>
       </c>
       <c r="C36" t="s">
-        <v>1041</v>
+        <v>956</v>
       </c>
       <c r="D36" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E36" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1104</v>
+        <v>1019</v>
       </c>
       <c r="B37" t="s">
-        <v>1105</v>
+        <v>1020</v>
       </c>
       <c r="C37" t="s">
-        <v>1044</v>
+        <v>959</v>
       </c>
       <c r="D37" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E37" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1106</v>
+        <v>1021</v>
       </c>
       <c r="B38" t="s">
-        <v>1107</v>
+        <v>1022</v>
       </c>
       <c r="C38" t="s">
-        <v>1047</v>
+        <v>962</v>
       </c>
       <c r="D38" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E38" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1108</v>
+        <v>1023</v>
       </c>
       <c r="B39" t="s">
-        <v>1109</v>
+        <v>1024</v>
       </c>
       <c r="C39" t="s">
-        <v>1050</v>
+        <v>965</v>
       </c>
       <c r="D39" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E39" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1110</v>
+        <v>1025</v>
       </c>
       <c r="B40" t="s">
-        <v>1111</v>
+        <v>1026</v>
       </c>
       <c r="C40" t="s">
-        <v>1053</v>
+        <v>968</v>
       </c>
       <c r="D40" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E40" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1112</v>
+        <v>1027</v>
       </c>
       <c r="B41" t="s">
-        <v>1113</v>
+        <v>1028</v>
       </c>
       <c r="C41" t="s">
-        <v>1154</v>
+        <v>1069</v>
       </c>
       <c r="D41" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E41" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1114</v>
+        <v>1029</v>
       </c>
       <c r="B42" t="s">
-        <v>1115</v>
+        <v>1030</v>
       </c>
       <c r="C42" t="s">
-        <v>1155</v>
+        <v>1070</v>
       </c>
       <c r="D42" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E42" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1116</v>
+        <v>1031</v>
       </c>
       <c r="B43" t="s">
-        <v>1117</v>
+        <v>1032</v>
       </c>
       <c r="C43" t="s">
-        <v>1156</v>
+        <v>1071</v>
       </c>
       <c r="D43" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E43" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1118</v>
+        <v>1033</v>
       </c>
       <c r="B44" t="s">
-        <v>1119</v>
+        <v>1034</v>
       </c>
       <c r="C44" t="s">
-        <v>1157</v>
+        <v>1072</v>
       </c>
       <c r="D44" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E44" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1120</v>
+        <v>1035</v>
       </c>
       <c r="B45" t="s">
-        <v>1121</v>
+        <v>1036</v>
       </c>
       <c r="C45" t="s">
-        <v>1158</v>
+        <v>1073</v>
       </c>
       <c r="D45" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E45" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1122</v>
+        <v>1037</v>
       </c>
       <c r="B46" t="s">
-        <v>1123</v>
+        <v>1038</v>
       </c>
       <c r="C46" t="s">
-        <v>1159</v>
+        <v>1074</v>
       </c>
       <c r="D46" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E46" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1124</v>
+        <v>1039</v>
       </c>
       <c r="B47" t="s">
-        <v>1125</v>
+        <v>1040</v>
       </c>
       <c r="C47" t="s">
-        <v>1160</v>
+        <v>1075</v>
       </c>
       <c r="D47" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E47" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1126</v>
+        <v>1041</v>
       </c>
       <c r="B48" t="s">
-        <v>1127</v>
+        <v>1042</v>
       </c>
       <c r="C48" t="s">
-        <v>1161</v>
+        <v>1076</v>
       </c>
       <c r="D48" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E48" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1128</v>
+        <v>1043</v>
       </c>
       <c r="B49" t="s">
-        <v>1129</v>
+        <v>1044</v>
       </c>
       <c r="C49" t="s">
-        <v>1182</v>
+        <v>1097</v>
       </c>
       <c r="D49" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="E49" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>
@@ -7354,7 +5385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB829CBE-189D-5C46-9935-EFE0575379F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -7378,7 +5409,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>1130</v>
+        <v>1045</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>11</v>
@@ -7389,13 +5420,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1131</v>
+        <v>1046</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1131</v>
+        <v>1046</v>
       </c>
       <c r="E2" s="8">
         <v>0.03</v>
@@ -7409,13 +5440,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1132</v>
+        <v>1047</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1132</v>
+        <v>1047</v>
       </c>
       <c r="E3" s="8">
         <v>0.03</v>
@@ -7429,7 +5460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393D25C8-D7BE-EE43-979A-025C64F61B02}">
   <dimension ref="A1:D49"/>
   <sheetViews>
@@ -7450,18 +5481,18 @@
         <v>797</v>
       </c>
       <c r="D1" t="s">
-        <v>1133</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="B2" t="s">
-        <v>1134</v>
+        <v>1049</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1162</v>
+        <v>1077</v>
       </c>
       <c r="D2" s="5">
         <v>0.1</v>
@@ -7472,10 +5503,10 @@
         <v>909</v>
       </c>
       <c r="B3" t="s">
-        <v>1135</v>
+        <v>1050</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1163</v>
+        <v>1078</v>
       </c>
       <c r="D3" s="5">
         <v>0.1</v>
@@ -7483,13 +5514,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1030</v>
+        <v>945</v>
       </c>
       <c r="B4" t="s">
-        <v>1136</v>
+        <v>1051</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1164</v>
+        <v>1079</v>
       </c>
       <c r="D4" s="5">
         <v>0.1</v>
@@ -7497,13 +5528,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1033</v>
+        <v>948</v>
       </c>
       <c r="B5" t="s">
-        <v>1137</v>
+        <v>1052</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1165</v>
+        <v>1080</v>
       </c>
       <c r="D5" s="5">
         <v>0.1</v>
@@ -7511,13 +5542,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1036</v>
+        <v>951</v>
       </c>
       <c r="B6" t="s">
-        <v>1138</v>
+        <v>1053</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1166</v>
+        <v>1081</v>
       </c>
       <c r="D6" s="5">
         <v>0.1</v>
@@ -7525,13 +5556,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1039</v>
+        <v>954</v>
       </c>
       <c r="B7" t="s">
-        <v>1139</v>
+        <v>1054</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1167</v>
+        <v>1082</v>
       </c>
       <c r="D7" s="5">
         <v>0.1</v>
@@ -7539,13 +5570,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1042</v>
+        <v>957</v>
       </c>
       <c r="B8" t="s">
-        <v>1140</v>
+        <v>1055</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1168</v>
+        <v>1083</v>
       </c>
       <c r="D8" s="5">
         <v>0.1</v>
@@ -7553,13 +5584,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1045</v>
+        <v>960</v>
       </c>
       <c r="B9" t="s">
-        <v>1141</v>
+        <v>1056</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1169</v>
+        <v>1084</v>
       </c>
       <c r="D9" s="5">
         <v>0.1</v>
@@ -7567,13 +5598,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1048</v>
+        <v>963</v>
       </c>
       <c r="B10" t="s">
-        <v>1142</v>
+        <v>1057</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1170</v>
+        <v>1085</v>
       </c>
       <c r="D10" s="5">
         <v>0.1</v>
@@ -7581,13 +5612,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1051</v>
+        <v>966</v>
       </c>
       <c r="B11" t="s">
-        <v>1143</v>
+        <v>1058</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1171</v>
+        <v>1086</v>
       </c>
       <c r="D11" s="5">
         <v>0.1</v>
@@ -7595,13 +5626,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1054</v>
+        <v>969</v>
       </c>
       <c r="B12" t="s">
-        <v>1183</v>
+        <v>1098</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1172</v>
+        <v>1087</v>
       </c>
       <c r="D12" s="5">
         <v>0.1</v>
@@ -7609,13 +5640,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1056</v>
+        <v>971</v>
       </c>
       <c r="B13" t="s">
-        <v>1184</v>
+        <v>1099</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1173</v>
+        <v>1088</v>
       </c>
       <c r="D13" s="5">
         <v>0.1</v>
@@ -7623,13 +5654,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1058</v>
+        <v>973</v>
       </c>
       <c r="B14" t="s">
-        <v>1185</v>
+        <v>1100</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1174</v>
+        <v>1089</v>
       </c>
       <c r="D14" s="5">
         <v>0.1</v>
@@ -7637,13 +5668,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1060</v>
+        <v>975</v>
       </c>
       <c r="B15" t="s">
-        <v>1186</v>
+        <v>1101</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1175</v>
+        <v>1090</v>
       </c>
       <c r="D15" s="5">
         <v>0.1</v>
@@ -7651,13 +5682,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1062</v>
+        <v>977</v>
       </c>
       <c r="B16" t="s">
-        <v>1187</v>
+        <v>1102</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1176</v>
+        <v>1091</v>
       </c>
       <c r="D16" s="5">
         <v>0.1</v>
@@ -7665,13 +5696,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1064</v>
+        <v>979</v>
       </c>
       <c r="B17" t="s">
-        <v>1188</v>
+        <v>1103</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1177</v>
+        <v>1092</v>
       </c>
       <c r="D17" s="5">
         <v>0.1</v>
@@ -7679,13 +5710,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1066</v>
+        <v>981</v>
       </c>
       <c r="B18" t="s">
-        <v>1189</v>
+        <v>1104</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1178</v>
+        <v>1093</v>
       </c>
       <c r="D18" s="5">
         <v>0.1</v>
@@ -7693,13 +5724,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1068</v>
+        <v>983</v>
       </c>
       <c r="B19" t="s">
-        <v>1190</v>
+        <v>1105</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1179</v>
+        <v>1094</v>
       </c>
       <c r="D19" s="5">
         <v>0.1</v>
@@ -7707,13 +5738,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1070</v>
+        <v>985</v>
       </c>
       <c r="B20" t="s">
-        <v>1191</v>
+        <v>1106</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1180</v>
+        <v>1095</v>
       </c>
       <c r="D20" s="5">
         <v>0.1</v>
@@ -7721,13 +5752,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1072</v>
+        <v>987</v>
       </c>
       <c r="B21" t="s">
-        <v>1192</v>
+        <v>1107</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1181</v>
+        <v>1096</v>
       </c>
       <c r="D21" s="5">
         <v>0.1</v>
@@ -7735,13 +5766,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1074</v>
+        <v>989</v>
       </c>
       <c r="B22" t="s">
-        <v>1193</v>
+        <v>1108</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1144</v>
+        <v>1059</v>
       </c>
       <c r="D22" s="5">
         <v>0.1</v>
@@ -7749,13 +5780,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1076</v>
+        <v>991</v>
       </c>
       <c r="B23" t="s">
-        <v>1194</v>
+        <v>1109</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1145</v>
+        <v>1060</v>
       </c>
       <c r="D23" s="5">
         <v>0.1</v>
@@ -7763,13 +5794,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1078</v>
+        <v>993</v>
       </c>
       <c r="B24" t="s">
-        <v>1195</v>
+        <v>1110</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1146</v>
+        <v>1061</v>
       </c>
       <c r="D24" s="5">
         <v>0.1</v>
@@ -7777,13 +5808,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1080</v>
+        <v>995</v>
       </c>
       <c r="B25" t="s">
-        <v>1196</v>
+        <v>1111</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1147</v>
+        <v>1062</v>
       </c>
       <c r="D25" s="5">
         <v>0.1</v>
@@ -7791,13 +5822,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1082</v>
+        <v>997</v>
       </c>
       <c r="B26" t="s">
-        <v>1197</v>
+        <v>1112</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1148</v>
+        <v>1063</v>
       </c>
       <c r="D26" s="5">
         <v>0.1</v>
@@ -7805,13 +5836,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1084</v>
+        <v>999</v>
       </c>
       <c r="B27" t="s">
-        <v>1198</v>
+        <v>1113</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1149</v>
+        <v>1064</v>
       </c>
       <c r="D27" s="5">
         <v>0.1</v>
@@ -7819,13 +5850,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1086</v>
+        <v>1001</v>
       </c>
       <c r="B28" t="s">
-        <v>1199</v>
+        <v>1114</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1150</v>
+        <v>1065</v>
       </c>
       <c r="D28" s="5">
         <v>0.1</v>
@@ -7833,13 +5864,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1088</v>
+        <v>1003</v>
       </c>
       <c r="B29" t="s">
-        <v>1200</v>
+        <v>1115</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1151</v>
+        <v>1066</v>
       </c>
       <c r="D29" s="5">
         <v>0.1</v>
@@ -7847,13 +5878,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1090</v>
+        <v>1005</v>
       </c>
       <c r="B30" t="s">
-        <v>1201</v>
+        <v>1116</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1152</v>
+        <v>1067</v>
       </c>
       <c r="D30" s="5">
         <v>0.1</v>
@@ -7861,13 +5892,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1092</v>
+        <v>1007</v>
       </c>
       <c r="B31" t="s">
-        <v>1202</v>
+        <v>1117</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1029</v>
+        <v>944</v>
       </c>
       <c r="D31" s="5">
         <v>0.1</v>
@@ -7875,13 +5906,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1094</v>
+        <v>1009</v>
       </c>
       <c r="B32" t="s">
-        <v>1203</v>
+        <v>1118</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1153</v>
+        <v>1068</v>
       </c>
       <c r="D32" s="5">
         <v>0.1</v>
@@ -7889,13 +5920,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1096</v>
+        <v>1011</v>
       </c>
       <c r="B33" t="s">
-        <v>1204</v>
+        <v>1119</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1032</v>
+        <v>947</v>
       </c>
       <c r="D33" s="5">
         <v>0.1</v>
@@ -7903,13 +5934,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1098</v>
+        <v>1013</v>
       </c>
       <c r="B34" t="s">
-        <v>1205</v>
+        <v>1120</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1035</v>
+        <v>950</v>
       </c>
       <c r="D34" s="5">
         <v>0.1</v>
@@ -7917,13 +5948,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1100</v>
+        <v>1015</v>
       </c>
       <c r="B35" t="s">
-        <v>1206</v>
+        <v>1121</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1038</v>
+        <v>953</v>
       </c>
       <c r="D35" s="5">
         <v>0.1</v>
@@ -7931,13 +5962,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1102</v>
+        <v>1017</v>
       </c>
       <c r="B36" t="s">
-        <v>1207</v>
+        <v>1122</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1041</v>
+        <v>956</v>
       </c>
       <c r="D36" s="5">
         <v>0.1</v>
@@ -7945,13 +5976,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1104</v>
+        <v>1019</v>
       </c>
       <c r="B37" t="s">
-        <v>1208</v>
+        <v>1123</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1044</v>
+        <v>959</v>
       </c>
       <c r="D37" s="5">
         <v>0.1</v>
@@ -7959,13 +5990,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1106</v>
+        <v>1021</v>
       </c>
       <c r="B38" t="s">
-        <v>1209</v>
+        <v>1124</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1047</v>
+        <v>962</v>
       </c>
       <c r="D38" s="5">
         <v>0.1</v>
@@ -7973,13 +6004,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1108</v>
+        <v>1023</v>
       </c>
       <c r="B39" t="s">
-        <v>1210</v>
+        <v>1125</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1050</v>
+        <v>965</v>
       </c>
       <c r="D39" s="5">
         <v>0.1</v>
@@ -7987,13 +6018,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1110</v>
+        <v>1025</v>
       </c>
       <c r="B40" t="s">
-        <v>1211</v>
+        <v>1126</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1053</v>
+        <v>968</v>
       </c>
       <c r="D40" s="5">
         <v>0.1</v>
@@ -8001,13 +6032,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1112</v>
+        <v>1027</v>
       </c>
       <c r="B41" t="s">
-        <v>1212</v>
+        <v>1127</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>1154</v>
+        <v>1069</v>
       </c>
       <c r="D41" s="5">
         <v>0.1</v>
@@ -8015,13 +6046,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1114</v>
+        <v>1029</v>
       </c>
       <c r="B42" t="s">
-        <v>1213</v>
+        <v>1128</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>1155</v>
+        <v>1070</v>
       </c>
       <c r="D42" s="5">
         <v>0.1</v>
@@ -8029,13 +6060,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1116</v>
+        <v>1031</v>
       </c>
       <c r="B43" t="s">
-        <v>1214</v>
+        <v>1129</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>1156</v>
+        <v>1071</v>
       </c>
       <c r="D43" s="5">
         <v>0.1</v>
@@ -8043,13 +6074,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1118</v>
+        <v>1033</v>
       </c>
       <c r="B44" t="s">
-        <v>1215</v>
+        <v>1130</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1157</v>
+        <v>1072</v>
       </c>
       <c r="D44" s="5">
         <v>0.1</v>
@@ -8057,13 +6088,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1120</v>
+        <v>1035</v>
       </c>
       <c r="B45" t="s">
-        <v>1216</v>
+        <v>1131</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1158</v>
+        <v>1073</v>
       </c>
       <c r="D45" s="5">
         <v>0.1</v>
@@ -8071,13 +6102,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1122</v>
+        <v>1037</v>
       </c>
       <c r="B46" t="s">
-        <v>1217</v>
+        <v>1132</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1159</v>
+        <v>1074</v>
       </c>
       <c r="D46" s="5">
         <v>0.1</v>
@@ -8085,13 +6116,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1124</v>
+        <v>1039</v>
       </c>
       <c r="B47" t="s">
-        <v>1218</v>
+        <v>1133</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1160</v>
+        <v>1075</v>
       </c>
       <c r="D47" s="5">
         <v>0.1</v>
@@ -8099,13 +6130,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1126</v>
+        <v>1041</v>
       </c>
       <c r="B48" t="s">
-        <v>1219</v>
+        <v>1134</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1161</v>
+        <v>1076</v>
       </c>
       <c r="D48" s="5">
         <v>0.1</v>
@@ -8113,13 +6144,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1128</v>
+        <v>1043</v>
       </c>
       <c r="B49" t="s">
-        <v>1220</v>
+        <v>1135</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1182</v>
+        <v>1097</v>
       </c>
       <c r="D49" s="5">
         <v>0.1</v>
@@ -8131,7 +6162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D70DB7-C22F-D34B-8DEF-82E098ED4C8E}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -8155,7 +6186,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1130</v>
+        <v>1045</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>11</v>
@@ -8166,13 +6197,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1221</v>
+        <v>1136</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1221</v>
+        <v>1136</v>
       </c>
       <c r="E2" s="8">
         <v>0.03</v>
@@ -8186,13 +6217,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1222</v>
+        <v>1137</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1222</v>
+        <v>1137</v>
       </c>
       <c r="E3" s="8">
         <v>0.03</v>
@@ -8207,11 +6238,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6ED8F1C-F9B9-C547-9EBC-3A53F230AD04}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -8228,18 +6259,18 @@
         <v>797</v>
       </c>
       <c r="D1" t="s">
-        <v>1223</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1022</v>
+        <v>937</v>
       </c>
       <c r="B2" t="s">
-        <v>1224</v>
+        <v>1139</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1162</v>
+        <v>1077</v>
       </c>
       <c r="D2" s="5">
         <v>0.1</v>
@@ -8250,10 +6281,10 @@
         <v>909</v>
       </c>
       <c r="B3" t="s">
-        <v>1225</v>
+        <v>1140</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1163</v>
+        <v>1078</v>
       </c>
       <c r="D3" s="5">
         <v>0.1</v>
@@ -8261,13 +6292,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1030</v>
+        <v>945</v>
       </c>
       <c r="B4" t="s">
-        <v>1226</v>
+        <v>1141</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1164</v>
+        <v>1079</v>
       </c>
       <c r="D4" s="5">
         <v>0.1</v>
@@ -8275,13 +6306,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1033</v>
+        <v>948</v>
       </c>
       <c r="B5" t="s">
-        <v>1227</v>
+        <v>1142</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1165</v>
+        <v>1080</v>
       </c>
       <c r="D5" s="5">
         <v>0.1</v>
@@ -8289,13 +6320,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1036</v>
+        <v>951</v>
       </c>
       <c r="B6" t="s">
-        <v>1228</v>
+        <v>1143</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1166</v>
+        <v>1081</v>
       </c>
       <c r="D6" s="5">
         <v>0.1</v>
@@ -8303,13 +6334,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1039</v>
+        <v>954</v>
       </c>
       <c r="B7" t="s">
-        <v>1229</v>
+        <v>1144</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1167</v>
+        <v>1082</v>
       </c>
       <c r="D7" s="5">
         <v>0.1</v>
@@ -8317,13 +6348,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1042</v>
+        <v>957</v>
       </c>
       <c r="B8" t="s">
-        <v>1230</v>
+        <v>1145</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1168</v>
+        <v>1083</v>
       </c>
       <c r="D8" s="5">
         <v>0.1</v>
@@ -8331,13 +6362,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1045</v>
+        <v>960</v>
       </c>
       <c r="B9" t="s">
-        <v>1231</v>
+        <v>1146</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1169</v>
+        <v>1084</v>
       </c>
       <c r="D9" s="5">
         <v>0.1</v>
@@ -8345,13 +6376,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1048</v>
+        <v>963</v>
       </c>
       <c r="B10" t="s">
-        <v>1232</v>
+        <v>1147</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1170</v>
+        <v>1085</v>
       </c>
       <c r="D10" s="5">
         <v>0.1</v>
@@ -8359,13 +6390,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1051</v>
+        <v>966</v>
       </c>
       <c r="B11" t="s">
-        <v>1233</v>
+        <v>1148</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1171</v>
+        <v>1086</v>
       </c>
       <c r="D11" s="5">
         <v>0.1</v>
@@ -8373,13 +6404,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1054</v>
+        <v>969</v>
       </c>
       <c r="B12" t="s">
-        <v>1234</v>
+        <v>1149</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1172</v>
+        <v>1087</v>
       </c>
       <c r="D12" s="5">
         <v>0.1</v>
@@ -8387,13 +6418,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1056</v>
+        <v>971</v>
       </c>
       <c r="B13" t="s">
-        <v>1235</v>
+        <v>1150</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1173</v>
+        <v>1088</v>
       </c>
       <c r="D13" s="5">
         <v>0.1</v>
@@ -8401,13 +6432,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1058</v>
+        <v>973</v>
       </c>
       <c r="B14" t="s">
-        <v>1236</v>
+        <v>1151</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1174</v>
+        <v>1089</v>
       </c>
       <c r="D14" s="5">
         <v>0.1</v>
@@ -8415,13 +6446,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1060</v>
+        <v>975</v>
       </c>
       <c r="B15" t="s">
-        <v>1237</v>
+        <v>1152</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1175</v>
+        <v>1090</v>
       </c>
       <c r="D15" s="5">
         <v>0.1</v>
@@ -8429,13 +6460,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1062</v>
+        <v>977</v>
       </c>
       <c r="B16" t="s">
-        <v>1238</v>
+        <v>1153</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1176</v>
+        <v>1091</v>
       </c>
       <c r="D16" s="5">
         <v>0.1</v>
@@ -8443,13 +6474,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1064</v>
+        <v>979</v>
       </c>
       <c r="B17" t="s">
-        <v>1239</v>
+        <v>1154</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1177</v>
+        <v>1092</v>
       </c>
       <c r="D17" s="5">
         <v>0.1</v>
@@ -8457,13 +6488,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1066</v>
+        <v>981</v>
       </c>
       <c r="B18" t="s">
-        <v>1240</v>
+        <v>1155</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1178</v>
+        <v>1093</v>
       </c>
       <c r="D18" s="5">
         <v>0.1</v>
@@ -8471,13 +6502,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1068</v>
+        <v>983</v>
       </c>
       <c r="B19" t="s">
-        <v>1241</v>
+        <v>1156</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1179</v>
+        <v>1094</v>
       </c>
       <c r="D19" s="5">
         <v>0.1</v>
@@ -8485,13 +6516,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1070</v>
+        <v>985</v>
       </c>
       <c r="B20" t="s">
-        <v>1242</v>
+        <v>1157</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1180</v>
+        <v>1095</v>
       </c>
       <c r="D20" s="5">
         <v>0.1</v>
@@ -8499,13 +6530,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1072</v>
+        <v>987</v>
       </c>
       <c r="B21" t="s">
-        <v>1243</v>
+        <v>1158</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1181</v>
+        <v>1096</v>
       </c>
       <c r="D21" s="5">
         <v>0.1</v>
@@ -8513,13 +6544,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1074</v>
+        <v>989</v>
       </c>
       <c r="B22" t="s">
-        <v>1244</v>
+        <v>1159</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1144</v>
+        <v>1059</v>
       </c>
       <c r="D22" s="5">
         <v>0.1</v>
@@ -8527,13 +6558,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1076</v>
+        <v>991</v>
       </c>
       <c r="B23" t="s">
-        <v>1245</v>
+        <v>1160</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1145</v>
+        <v>1060</v>
       </c>
       <c r="D23" s="5">
         <v>0.1</v>
@@ -8541,13 +6572,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1078</v>
+        <v>993</v>
       </c>
       <c r="B24" t="s">
-        <v>1246</v>
+        <v>1161</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1146</v>
+        <v>1061</v>
       </c>
       <c r="D24" s="5">
         <v>0.1</v>
@@ -8555,13 +6586,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1080</v>
+        <v>995</v>
       </c>
       <c r="B25" t="s">
-        <v>1247</v>
+        <v>1162</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1147</v>
+        <v>1062</v>
       </c>
       <c r="D25" s="5">
         <v>0.1</v>
@@ -8569,13 +6600,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1082</v>
+        <v>997</v>
       </c>
       <c r="B26" t="s">
-        <v>1248</v>
+        <v>1163</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1148</v>
+        <v>1063</v>
       </c>
       <c r="D26" s="5">
         <v>0.1</v>
@@ -8583,13 +6614,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1084</v>
+        <v>999</v>
       </c>
       <c r="B27" t="s">
-        <v>1249</v>
+        <v>1164</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1149</v>
+        <v>1064</v>
       </c>
       <c r="D27" s="5">
         <v>0.1</v>
@@ -8597,13 +6628,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1086</v>
+        <v>1001</v>
       </c>
       <c r="B28" t="s">
-        <v>1250</v>
+        <v>1165</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1150</v>
+        <v>1065</v>
       </c>
       <c r="D28" s="5">
         <v>0.1</v>
@@ -8611,13 +6642,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1088</v>
+        <v>1003</v>
       </c>
       <c r="B29" t="s">
-        <v>1251</v>
+        <v>1166</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1151</v>
+        <v>1066</v>
       </c>
       <c r="D29" s="5">
         <v>0.1</v>
@@ -8625,13 +6656,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1090</v>
+        <v>1005</v>
       </c>
       <c r="B30" t="s">
-        <v>1252</v>
+        <v>1167</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1152</v>
+        <v>1067</v>
       </c>
       <c r="D30" s="5">
         <v>0.1</v>
@@ -8639,13 +6670,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1092</v>
+        <v>1007</v>
       </c>
       <c r="B31" t="s">
-        <v>1253</v>
+        <v>1168</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1029</v>
+        <v>944</v>
       </c>
       <c r="D31" s="5">
         <v>0.1</v>
@@ -8653,13 +6684,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1094</v>
+        <v>1009</v>
       </c>
       <c r="B32" t="s">
-        <v>1254</v>
+        <v>1169</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1153</v>
+        <v>1068</v>
       </c>
       <c r="D32" s="5">
         <v>0.1</v>
@@ -8667,13 +6698,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1096</v>
+        <v>1011</v>
       </c>
       <c r="B33" t="s">
-        <v>1255</v>
+        <v>1170</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1032</v>
+        <v>947</v>
       </c>
       <c r="D33" s="5">
         <v>0.1</v>
@@ -8681,13 +6712,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1098</v>
+        <v>1013</v>
       </c>
       <c r="B34" t="s">
-        <v>1256</v>
+        <v>1171</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1035</v>
+        <v>950</v>
       </c>
       <c r="D34" s="5">
         <v>0.1</v>
@@ -8695,13 +6726,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1100</v>
+        <v>1015</v>
       </c>
       <c r="B35" t="s">
-        <v>1257</v>
+        <v>1172</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1038</v>
+        <v>953</v>
       </c>
       <c r="D35" s="5">
         <v>0.1</v>
@@ -8709,13 +6740,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1102</v>
+        <v>1017</v>
       </c>
       <c r="B36" t="s">
-        <v>1258</v>
+        <v>1173</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1041</v>
+        <v>956</v>
       </c>
       <c r="D36" s="5">
         <v>0.1</v>
@@ -8723,13 +6754,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1104</v>
+        <v>1019</v>
       </c>
       <c r="B37" t="s">
-        <v>1259</v>
+        <v>1174</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1044</v>
+        <v>959</v>
       </c>
       <c r="D37" s="5">
         <v>0.1</v>
@@ -8737,13 +6768,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1106</v>
+        <v>1021</v>
       </c>
       <c r="B38" t="s">
-        <v>1260</v>
+        <v>1175</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1047</v>
+        <v>962</v>
       </c>
       <c r="D38" s="5">
         <v>0.1</v>
@@ -8751,13 +6782,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1108</v>
+        <v>1023</v>
       </c>
       <c r="B39" t="s">
-        <v>1261</v>
+        <v>1176</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1050</v>
+        <v>965</v>
       </c>
       <c r="D39" s="5">
         <v>0.1</v>
@@ -8765,13 +6796,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1110</v>
+        <v>1025</v>
       </c>
       <c r="B40" t="s">
-        <v>1262</v>
+        <v>1177</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1053</v>
+        <v>968</v>
       </c>
       <c r="D40" s="5">
         <v>0.1</v>
@@ -8779,13 +6810,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1112</v>
+        <v>1027</v>
       </c>
       <c r="B41" t="s">
-        <v>1263</v>
+        <v>1178</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>1154</v>
+        <v>1069</v>
       </c>
       <c r="D41" s="5">
         <v>0.1</v>
@@ -8793,13 +6824,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1114</v>
+        <v>1029</v>
       </c>
       <c r="B42" t="s">
-        <v>1264</v>
+        <v>1179</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>1155</v>
+        <v>1070</v>
       </c>
       <c r="D42" s="5">
         <v>0.1</v>
@@ -8807,13 +6838,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1116</v>
+        <v>1031</v>
       </c>
       <c r="B43" t="s">
-        <v>1265</v>
+        <v>1180</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>1156</v>
+        <v>1071</v>
       </c>
       <c r="D43" s="5">
         <v>0.1</v>
@@ -8821,13 +6852,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1118</v>
+        <v>1033</v>
       </c>
       <c r="B44" t="s">
-        <v>1266</v>
+        <v>1181</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1157</v>
+        <v>1072</v>
       </c>
       <c r="D44" s="5">
         <v>0.1</v>
@@ -8835,13 +6866,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1120</v>
+        <v>1035</v>
       </c>
       <c r="B45" t="s">
-        <v>1267</v>
+        <v>1182</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1158</v>
+        <v>1073</v>
       </c>
       <c r="D45" s="5">
         <v>0.1</v>
@@ -8849,13 +6880,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1122</v>
+        <v>1037</v>
       </c>
       <c r="B46" t="s">
-        <v>1268</v>
+        <v>1183</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1159</v>
+        <v>1074</v>
       </c>
       <c r="D46" s="5">
         <v>0.1</v>
@@ -8863,13 +6894,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1124</v>
+        <v>1039</v>
       </c>
       <c r="B47" t="s">
-        <v>1269</v>
+        <v>1184</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1160</v>
+        <v>1075</v>
       </c>
       <c r="D47" s="5">
         <v>0.1</v>
@@ -8877,13 +6908,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1126</v>
+        <v>1041</v>
       </c>
       <c r="B48" t="s">
-        <v>1270</v>
+        <v>1185</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1161</v>
+        <v>1076</v>
       </c>
       <c r="D48" s="5">
         <v>0.1</v>
@@ -8891,13 +6922,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1128</v>
+        <v>1043</v>
       </c>
       <c r="B49" t="s">
-        <v>1271</v>
+        <v>1186</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1182</v>
+        <v>1097</v>
       </c>
       <c r="D49" s="5">
         <v>0.1</v>
@@ -17533,13 +15564,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1162</v>
+        <v>1077</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1162</v>
+        <v>1077</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -17634,13 +15665,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1163</v>
+        <v>1078</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1163</v>
+        <v>1078</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -17735,13 +15766,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1164</v>
+        <v>1079</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1164</v>
+        <v>1079</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -17836,13 +15867,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1165</v>
+        <v>1080</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1165</v>
+        <v>1080</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -17937,13 +15968,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1166</v>
+        <v>1081</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1166</v>
+        <v>1081</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -18038,13 +16069,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1167</v>
+        <v>1082</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1167</v>
+        <v>1082</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -18139,13 +16170,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1168</v>
+        <v>1083</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1168</v>
+        <v>1083</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -18240,13 +16271,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1169</v>
+        <v>1084</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1169</v>
+        <v>1084</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -18341,13 +16372,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1170</v>
+        <v>1085</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1170</v>
+        <v>1085</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -18442,13 +16473,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1171</v>
+        <v>1086</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1171</v>
+        <v>1086</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -18543,13 +16574,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1172</v>
+        <v>1087</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1172</v>
+        <v>1087</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -18644,13 +16675,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1173</v>
+        <v>1088</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>1173</v>
+        <v>1088</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -18745,13 +16776,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1174</v>
+        <v>1089</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>1174</v>
+        <v>1089</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -18846,13 +16877,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>1175</v>
+        <v>1090</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>1175</v>
+        <v>1090</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -18947,13 +16978,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>1176</v>
+        <v>1091</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>1176</v>
+        <v>1091</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -19048,13 +17079,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>1177</v>
+        <v>1092</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>1177</v>
+        <v>1092</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -19149,13 +17180,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>1178</v>
+        <v>1093</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>1178</v>
+        <v>1093</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -19250,13 +17281,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>1179</v>
+        <v>1094</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>1179</v>
+        <v>1094</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -19351,13 +17382,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>1180</v>
+        <v>1095</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>1180</v>
+        <v>1095</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -19452,13 +17483,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>1181</v>
+        <v>1096</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>1181</v>
+        <v>1096</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -19553,13 +17584,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>1144</v>
+        <v>1059</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>1144</v>
+        <v>1059</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -19654,13 +17685,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>1145</v>
+        <v>1060</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>1145</v>
+        <v>1060</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -19755,13 +17786,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>1146</v>
+        <v>1061</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>1146</v>
+        <v>1061</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -19856,13 +17887,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>1147</v>
+        <v>1062</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1147</v>
+        <v>1062</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -19957,13 +17988,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>1148</v>
+        <v>1063</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>1148</v>
+        <v>1063</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -20058,13 +18089,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>1149</v>
+        <v>1064</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>1149</v>
+        <v>1064</v>
       </c>
       <c r="E27">
         <v>100</v>
@@ -20159,13 +18190,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>1150</v>
+        <v>1065</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>1150</v>
+        <v>1065</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -20260,13 +18291,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>1151</v>
+        <v>1066</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>1151</v>
+        <v>1066</v>
       </c>
       <c r="E29">
         <v>100</v>
@@ -20361,13 +18392,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>1152</v>
+        <v>1067</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>1152</v>
+        <v>1067</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -20462,13 +18493,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>1029</v>
+        <v>944</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>1029</v>
+        <v>944</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -20563,13 +18594,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>1153</v>
+        <v>1068</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>1153</v>
+        <v>1068</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -20664,13 +18695,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>1032</v>
+        <v>947</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>1032</v>
+        <v>947</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -20765,13 +18796,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>1035</v>
+        <v>950</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>1035</v>
+        <v>950</v>
       </c>
       <c r="E34">
         <v>100</v>
@@ -20866,13 +18897,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>1038</v>
+        <v>953</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>1038</v>
+        <v>953</v>
       </c>
       <c r="E35">
         <v>100</v>
@@ -20967,13 +18998,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>1041</v>
+        <v>956</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>1041</v>
+        <v>956</v>
       </c>
       <c r="E36">
         <v>100</v>
@@ -21068,13 +19099,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>1044</v>
+        <v>959</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>1044</v>
+        <v>959</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -21169,13 +19200,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>1047</v>
+        <v>962</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>1047</v>
+        <v>962</v>
       </c>
       <c r="E38">
         <v>100</v>
@@ -21270,13 +19301,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>1050</v>
+        <v>965</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>1050</v>
+        <v>965</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -21371,13 +19402,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>1053</v>
+        <v>968</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>1053</v>
+        <v>968</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -21472,13 +19503,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>1154</v>
+        <v>1069</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>1154</v>
+        <v>1069</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -21573,13 +19604,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>1155</v>
+        <v>1070</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>1155</v>
+        <v>1070</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -21674,13 +19705,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>1156</v>
+        <v>1071</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>1156</v>
+        <v>1071</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -21775,13 +19806,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>1157</v>
+        <v>1072</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>1157</v>
+        <v>1072</v>
       </c>
       <c r="E44">
         <v>100</v>
@@ -21876,13 +19907,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>1158</v>
+        <v>1073</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>1158</v>
+        <v>1073</v>
       </c>
       <c r="E45">
         <v>100</v>
@@ -21977,13 +20008,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>1159</v>
+        <v>1074</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>1159</v>
+        <v>1074</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -22078,13 +20109,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>1160</v>
+        <v>1075</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>1160</v>
+        <v>1075</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -22179,13 +20210,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>1161</v>
+        <v>1076</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>1161</v>
+        <v>1076</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -22401,13 +20432,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1182</v>
+        <v>1097</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1182</v>
+        <v>1097</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -41369,7 +39400,7 @@
         <v>804</v>
       </c>
       <c r="E2" t="s">
-        <v>1162</v>
+        <v>1077</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -41404,7 +39435,7 @@
         <v>805</v>
       </c>
       <c r="E3" t="s">
-        <v>1163</v>
+        <v>1078</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -41439,7 +39470,7 @@
         <v>806</v>
       </c>
       <c r="E4" t="s">
-        <v>1164</v>
+        <v>1079</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -41474,7 +39505,7 @@
         <v>807</v>
       </c>
       <c r="E5" t="s">
-        <v>1165</v>
+        <v>1080</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -41509,7 +39540,7 @@
         <v>808</v>
       </c>
       <c r="E6" t="s">
-        <v>1166</v>
+        <v>1081</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -41544,7 +39575,7 @@
         <v>809</v>
       </c>
       <c r="E7" t="s">
-        <v>1167</v>
+        <v>1082</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -41579,7 +39610,7 @@
         <v>810</v>
       </c>
       <c r="E8" t="s">
-        <v>1168</v>
+        <v>1083</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -41614,7 +39645,7 @@
         <v>811</v>
       </c>
       <c r="E9" t="s">
-        <v>1169</v>
+        <v>1084</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -41649,7 +39680,7 @@
         <v>812</v>
       </c>
       <c r="E10" t="s">
-        <v>1170</v>
+        <v>1085</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -41684,7 +39715,7 @@
         <v>813</v>
       </c>
       <c r="E11" t="s">
-        <v>1171</v>
+        <v>1086</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -41719,7 +39750,7 @@
         <v>814</v>
       </c>
       <c r="E12" t="s">
-        <v>1172</v>
+        <v>1087</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -41754,7 +39785,7 @@
         <v>815</v>
       </c>
       <c r="E13" t="s">
-        <v>1173</v>
+        <v>1088</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -41789,7 +39820,7 @@
         <v>816</v>
       </c>
       <c r="E14" t="s">
-        <v>1174</v>
+        <v>1089</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -41824,7 +39855,7 @@
         <v>817</v>
       </c>
       <c r="E15" t="s">
-        <v>1175</v>
+        <v>1090</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -41859,7 +39890,7 @@
         <v>818</v>
       </c>
       <c r="E16" t="s">
-        <v>1176</v>
+        <v>1091</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -41894,7 +39925,7 @@
         <v>819</v>
       </c>
       <c r="E17" t="s">
-        <v>1177</v>
+        <v>1092</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -41929,7 +39960,7 @@
         <v>820</v>
       </c>
       <c r="E18" t="s">
-        <v>1178</v>
+        <v>1093</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -41964,7 +39995,7 @@
         <v>821</v>
       </c>
       <c r="E19" t="s">
-        <v>1179</v>
+        <v>1094</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -41999,7 +40030,7 @@
         <v>822</v>
       </c>
       <c r="E20" t="s">
-        <v>1180</v>
+        <v>1095</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -42034,7 +40065,7 @@
         <v>823</v>
       </c>
       <c r="E21" t="s">
-        <v>1181</v>
+        <v>1096</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -42069,7 +40100,7 @@
         <v>824</v>
       </c>
       <c r="E22" t="s">
-        <v>1144</v>
+        <v>1059</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -42104,7 +40135,7 @@
         <v>825</v>
       </c>
       <c r="E23" t="s">
-        <v>1145</v>
+        <v>1060</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -42139,7 +40170,7 @@
         <v>826</v>
       </c>
       <c r="E24" t="s">
-        <v>1146</v>
+        <v>1061</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -42174,7 +40205,7 @@
         <v>827</v>
       </c>
       <c r="E25" t="s">
-        <v>1147</v>
+        <v>1062</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -42209,7 +40240,7 @@
         <v>828</v>
       </c>
       <c r="E26" t="s">
-        <v>1148</v>
+        <v>1063</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -42244,7 +40275,7 @@
         <v>829</v>
       </c>
       <c r="E27" t="s">
-        <v>1149</v>
+        <v>1064</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -42279,7 +40310,7 @@
         <v>830</v>
       </c>
       <c r="E28" t="s">
-        <v>1150</v>
+        <v>1065</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -42314,7 +40345,7 @@
         <v>831</v>
       </c>
       <c r="E29" t="s">
-        <v>1151</v>
+        <v>1066</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -42349,7 +40380,7 @@
         <v>832</v>
       </c>
       <c r="E30" t="s">
-        <v>1152</v>
+        <v>1067</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -42384,7 +40415,7 @@
         <v>833</v>
       </c>
       <c r="E31" t="s">
-        <v>1029</v>
+        <v>944</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -42419,7 +40450,7 @@
         <v>834</v>
       </c>
       <c r="E32" t="s">
-        <v>1153</v>
+        <v>1068</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -42454,7 +40485,7 @@
         <v>835</v>
       </c>
       <c r="E33" t="s">
-        <v>1032</v>
+        <v>947</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -42489,7 +40520,7 @@
         <v>836</v>
       </c>
       <c r="E34" t="s">
-        <v>1035</v>
+        <v>950</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -42524,7 +40555,7 @@
         <v>837</v>
       </c>
       <c r="E35" t="s">
-        <v>1038</v>
+        <v>953</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -42559,7 +40590,7 @@
         <v>838</v>
       </c>
       <c r="E36" t="s">
-        <v>1041</v>
+        <v>956</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -42594,7 +40625,7 @@
         <v>839</v>
       </c>
       <c r="E37" t="s">
-        <v>1044</v>
+        <v>959</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -42629,7 +40660,7 @@
         <v>840</v>
       </c>
       <c r="E38" t="s">
-        <v>1047</v>
+        <v>962</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -42664,7 +40695,7 @@
         <v>841</v>
       </c>
       <c r="E39" t="s">
-        <v>1050</v>
+        <v>965</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -42699,7 +40730,7 @@
         <v>842</v>
       </c>
       <c r="E40" t="s">
-        <v>1053</v>
+        <v>968</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -42734,7 +40765,7 @@
         <v>843</v>
       </c>
       <c r="E41" t="s">
-        <v>1154</v>
+        <v>1069</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -42769,7 +40800,7 @@
         <v>844</v>
       </c>
       <c r="E42" t="s">
-        <v>1155</v>
+        <v>1070</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -42804,7 +40835,7 @@
         <v>845</v>
       </c>
       <c r="E43" t="s">
-        <v>1156</v>
+        <v>1071</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -42839,7 +40870,7 @@
         <v>846</v>
       </c>
       <c r="E44" t="s">
-        <v>1157</v>
+        <v>1072</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -42874,7 +40905,7 @@
         <v>847</v>
       </c>
       <c r="E45" t="s">
-        <v>1158</v>
+        <v>1073</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -42909,7 +40940,7 @@
         <v>848</v>
       </c>
       <c r="E46" t="s">
-        <v>1159</v>
+        <v>1074</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -42944,7 +40975,7 @@
         <v>849</v>
       </c>
       <c r="E47" t="s">
-        <v>1160</v>
+        <v>1075</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -42979,7 +41010,7 @@
         <v>850</v>
       </c>
       <c r="E48" t="s">
-        <v>1161</v>
+        <v>1076</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -43014,7 +41045,7 @@
         <v>851</v>
       </c>
       <c r="E49" t="s">
-        <v>1182</v>
+        <v>1097</v>
       </c>
       <c r="F49">
         <v>2</v>

--- a/ams/cases/npcc/npcc_uced.xlsx
+++ b/ams/cases/npcc/npcc_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/npcc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8809101E-2D8F-3A4A-88C6-7FB9E8475D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38A1CE8-ECFE-0B41-972F-F54062CD45C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="1190">
   <si>
     <t>idx</t>
   </si>
@@ -3599,6 +3599,12 @@
   </si>
   <si>
     <t>NPCC 140-bus test case</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -4089,7 +4095,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="A1:D25"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4453,8 +4459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFEA7AD-C8C7-A94F-8F3F-D38997E88FC6}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -39345,7 +39351,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2:E49"/>
     </sheetView>
   </sheetViews>
@@ -41073,15 +41079,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038AC594-54AF-9641-832D-E132AF85008E}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:D25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="97" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -41094,8 +41103,11 @@
       <c r="D1" s="8" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1" s="7" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -41108,8 +41120,11 @@
       <c r="D2" s="6" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E2" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -41122,8 +41137,11 @@
       <c r="D3" s="6" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E3" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -41136,8 +41154,11 @@
       <c r="D4" s="6" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E4" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -41150,8 +41171,11 @@
       <c r="D5" s="6" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E5" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -41164,8 +41188,11 @@
       <c r="D6" s="6" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E6" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -41178,8 +41205,11 @@
       <c r="D7" s="6" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E7" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -41192,8 +41222,11 @@
       <c r="D8" s="6" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E8" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -41206,8 +41239,11 @@
       <c r="D9" s="6" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E9" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -41220,8 +41256,11 @@
       <c r="D10" s="6" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E10" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -41234,8 +41273,11 @@
       <c r="D11" s="6" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E11" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -41248,8 +41290,11 @@
       <c r="D12" s="6" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E12" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -41262,8 +41307,11 @@
       <c r="D13" s="6" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E13" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -41276,8 +41324,11 @@
       <c r="D14" s="6" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E14" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -41290,8 +41341,11 @@
       <c r="D15" s="6" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E15" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -41304,8 +41358,11 @@
       <c r="D16" s="6" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E16" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -41318,8 +41375,11 @@
       <c r="D17" s="6" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E17" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -41332,8 +41392,11 @@
       <c r="D18" s="6" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E18" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -41346,8 +41409,11 @@
       <c r="D19" s="6" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E19" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -41360,8 +41426,11 @@
       <c r="D20" s="6" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E20" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -41374,8 +41443,11 @@
       <c r="D21" s="6" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E21" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -41388,8 +41460,11 @@
       <c r="D22" s="6" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E22" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -41402,8 +41477,11 @@
       <c r="D23" s="6" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E23" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -41416,8 +41494,11 @@
       <c r="D24" s="6" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E24" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -41429,6 +41510,9 @@
       </c>
       <c r="D25" s="6" t="s">
         <v>908</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>1189</v>
       </c>
     </row>
   </sheetData>

--- a/ams/cases/npcc/npcc_uced.xlsx
+++ b/ams/cases/npcc/npcc_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/npcc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38A1CE8-ECFE-0B41-972F-F54062CD45C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE437E0-3C10-C54F-918C-86F2CC599CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -29,13 +29,14 @@
     <sheet name="SRCost" sheetId="15" r:id="rId14"/>
     <sheet name="NSR" sheetId="16" r:id="rId15"/>
     <sheet name="NSRCost" sheetId="17" r:id="rId16"/>
+    <sheet name="DCost" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="1359">
   <si>
     <t>idx</t>
   </si>
@@ -3605,13 +3606,520 @@
   </si>
   <si>
     <t>1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>ctrl</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>cdp</t>
+  </si>
+  <si>
+    <t>DCost_1</t>
+  </si>
+  <si>
+    <t>Dcost 1</t>
+  </si>
+  <si>
+    <t>DCost_2</t>
+  </si>
+  <si>
+    <t>Dcost 2</t>
+  </si>
+  <si>
+    <t>DCost_3</t>
+  </si>
+  <si>
+    <t>Dcost 3</t>
+  </si>
+  <si>
+    <t>DCost_4</t>
+  </si>
+  <si>
+    <t>Dcost 4</t>
+  </si>
+  <si>
+    <t>DCost_5</t>
+  </si>
+  <si>
+    <t>Dcost 5</t>
+  </si>
+  <si>
+    <t>DCost_6</t>
+  </si>
+  <si>
+    <t>Dcost 6</t>
+  </si>
+  <si>
+    <t>DCost_7</t>
+  </si>
+  <si>
+    <t>Dcost 7</t>
+  </si>
+  <si>
+    <t>DCost_8</t>
+  </si>
+  <si>
+    <t>Dcost 8</t>
+  </si>
+  <si>
+    <t>DCost_9</t>
+  </si>
+  <si>
+    <t>Dcost 9</t>
+  </si>
+  <si>
+    <t>DCost_10</t>
+  </si>
+  <si>
+    <t>Dcost 10</t>
+  </si>
+  <si>
+    <t>DCost_11</t>
+  </si>
+  <si>
+    <t>Dcost 11</t>
+  </si>
+  <si>
+    <t>DCost_12</t>
+  </si>
+  <si>
+    <t>Dcost 12</t>
+  </si>
+  <si>
+    <t>DCost_13</t>
+  </si>
+  <si>
+    <t>Dcost 13</t>
+  </si>
+  <si>
+    <t>DCost_14</t>
+  </si>
+  <si>
+    <t>Dcost 14</t>
+  </si>
+  <si>
+    <t>DCost_15</t>
+  </si>
+  <si>
+    <t>Dcost 15</t>
+  </si>
+  <si>
+    <t>DCost_16</t>
+  </si>
+  <si>
+    <t>Dcost 16</t>
+  </si>
+  <si>
+    <t>DCost_17</t>
+  </si>
+  <si>
+    <t>Dcost 17</t>
+  </si>
+  <si>
+    <t>DCost_18</t>
+  </si>
+  <si>
+    <t>Dcost 18</t>
+  </si>
+  <si>
+    <t>DCost_19</t>
+  </si>
+  <si>
+    <t>Dcost 19</t>
+  </si>
+  <si>
+    <t>DCost_20</t>
+  </si>
+  <si>
+    <t>Dcost 20</t>
+  </si>
+  <si>
+    <t>DCost_21</t>
+  </si>
+  <si>
+    <t>Dcost 21</t>
+  </si>
+  <si>
+    <t>DCost_22</t>
+  </si>
+  <si>
+    <t>Dcost 22</t>
+  </si>
+  <si>
+    <t>DCost_23</t>
+  </si>
+  <si>
+    <t>Dcost 23</t>
+  </si>
+  <si>
+    <t>DCost_24</t>
+  </si>
+  <si>
+    <t>Dcost 24</t>
+  </si>
+  <si>
+    <t>DCost_25</t>
+  </si>
+  <si>
+    <t>Dcost 25</t>
+  </si>
+  <si>
+    <t>DCost_26</t>
+  </si>
+  <si>
+    <t>Dcost 26</t>
+  </si>
+  <si>
+    <t>DCost_27</t>
+  </si>
+  <si>
+    <t>Dcost 27</t>
+  </si>
+  <si>
+    <t>DCost_28</t>
+  </si>
+  <si>
+    <t>Dcost 28</t>
+  </si>
+  <si>
+    <t>DCost_29</t>
+  </si>
+  <si>
+    <t>Dcost 29</t>
+  </si>
+  <si>
+    <t>DCost_30</t>
+  </si>
+  <si>
+    <t>Dcost 30</t>
+  </si>
+  <si>
+    <t>DCost_31</t>
+  </si>
+  <si>
+    <t>Dcost 31</t>
+  </si>
+  <si>
+    <t>DCost_32</t>
+  </si>
+  <si>
+    <t>Dcost 32</t>
+  </si>
+  <si>
+    <t>DCost_33</t>
+  </si>
+  <si>
+    <t>Dcost 33</t>
+  </si>
+  <si>
+    <t>DCost_34</t>
+  </si>
+  <si>
+    <t>Dcost 34</t>
+  </si>
+  <si>
+    <t>DCost_35</t>
+  </si>
+  <si>
+    <t>Dcost 35</t>
+  </si>
+  <si>
+    <t>DCost_36</t>
+  </si>
+  <si>
+    <t>Dcost 36</t>
+  </si>
+  <si>
+    <t>DCost_37</t>
+  </si>
+  <si>
+    <t>Dcost 37</t>
+  </si>
+  <si>
+    <t>DCost_38</t>
+  </si>
+  <si>
+    <t>Dcost 38</t>
+  </si>
+  <si>
+    <t>DCost_39</t>
+  </si>
+  <si>
+    <t>Dcost 39</t>
+  </si>
+  <si>
+    <t>DCost_40</t>
+  </si>
+  <si>
+    <t>Dcost 40</t>
+  </si>
+  <si>
+    <t>DCost_41</t>
+  </si>
+  <si>
+    <t>Dcost 41</t>
+  </si>
+  <si>
+    <t>DCost_42</t>
+  </si>
+  <si>
+    <t>Dcost 42</t>
+  </si>
+  <si>
+    <t>DCost_43</t>
+  </si>
+  <si>
+    <t>Dcost 43</t>
+  </si>
+  <si>
+    <t>DCost_44</t>
+  </si>
+  <si>
+    <t>Dcost 44</t>
+  </si>
+  <si>
+    <t>DCost_45</t>
+  </si>
+  <si>
+    <t>Dcost 45</t>
+  </si>
+  <si>
+    <t>DCost_46</t>
+  </si>
+  <si>
+    <t>Dcost 46</t>
+  </si>
+  <si>
+    <t>DCost_47</t>
+  </si>
+  <si>
+    <t>Dcost 47</t>
+  </si>
+  <si>
+    <t>DCost_48</t>
+  </si>
+  <si>
+    <t>Dcost 48</t>
+  </si>
+  <si>
+    <t>DCost_49</t>
+  </si>
+  <si>
+    <t>Dcost 49</t>
+  </si>
+  <si>
+    <t>DCost_50</t>
+  </si>
+  <si>
+    <t>Dcost 50</t>
+  </si>
+  <si>
+    <t>DCost_51</t>
+  </si>
+  <si>
+    <t>Dcost 51</t>
+  </si>
+  <si>
+    <t>DCost_52</t>
+  </si>
+  <si>
+    <t>Dcost 52</t>
+  </si>
+  <si>
+    <t>DCost_53</t>
+  </si>
+  <si>
+    <t>Dcost 53</t>
+  </si>
+  <si>
+    <t>DCost_54</t>
+  </si>
+  <si>
+    <t>Dcost 54</t>
+  </si>
+  <si>
+    <t>DCost_55</t>
+  </si>
+  <si>
+    <t>Dcost 55</t>
+  </si>
+  <si>
+    <t>DCost_56</t>
+  </si>
+  <si>
+    <t>Dcost 56</t>
+  </si>
+  <si>
+    <t>DCost_57</t>
+  </si>
+  <si>
+    <t>Dcost 57</t>
+  </si>
+  <si>
+    <t>DCost_58</t>
+  </si>
+  <si>
+    <t>Dcost 58</t>
+  </si>
+  <si>
+    <t>DCost_59</t>
+  </si>
+  <si>
+    <t>Dcost 59</t>
+  </si>
+  <si>
+    <t>DCost_60</t>
+  </si>
+  <si>
+    <t>Dcost 60</t>
+  </si>
+  <si>
+    <t>DCost_61</t>
+  </si>
+  <si>
+    <t>Dcost 61</t>
+  </si>
+  <si>
+    <t>DCost_62</t>
+  </si>
+  <si>
+    <t>Dcost 62</t>
+  </si>
+  <si>
+    <t>DCost_63</t>
+  </si>
+  <si>
+    <t>Dcost 63</t>
+  </si>
+  <si>
+    <t>DCost_64</t>
+  </si>
+  <si>
+    <t>Dcost 64</t>
+  </si>
+  <si>
+    <t>DCost_65</t>
+  </si>
+  <si>
+    <t>Dcost 65</t>
+  </si>
+  <si>
+    <t>DCost_66</t>
+  </si>
+  <si>
+    <t>Dcost 66</t>
+  </si>
+  <si>
+    <t>DCost_67</t>
+  </si>
+  <si>
+    <t>Dcost 67</t>
+  </si>
+  <si>
+    <t>DCost_68</t>
+  </si>
+  <si>
+    <t>Dcost 68</t>
+  </si>
+  <si>
+    <t>DCost_69</t>
+  </si>
+  <si>
+    <t>Dcost 69</t>
+  </si>
+  <si>
+    <t>DCost_70</t>
+  </si>
+  <si>
+    <t>Dcost 70</t>
+  </si>
+  <si>
+    <t>DCost_71</t>
+  </si>
+  <si>
+    <t>Dcost 71</t>
+  </si>
+  <si>
+    <t>DCost_72</t>
+  </si>
+  <si>
+    <t>Dcost 72</t>
+  </si>
+  <si>
+    <t>DCost_73</t>
+  </si>
+  <si>
+    <t>Dcost 73</t>
+  </si>
+  <si>
+    <t>DCost_74</t>
+  </si>
+  <si>
+    <t>Dcost 74</t>
+  </si>
+  <si>
+    <t>DCost_75</t>
+  </si>
+  <si>
+    <t>Dcost 75</t>
+  </si>
+  <si>
+    <t>DCost_76</t>
+  </si>
+  <si>
+    <t>Dcost 76</t>
+  </si>
+  <si>
+    <t>DCost_77</t>
+  </si>
+  <si>
+    <t>Dcost 77</t>
+  </si>
+  <si>
+    <t>DCost_78</t>
+  </si>
+  <si>
+    <t>Dcost 78</t>
+  </si>
+  <si>
+    <t>DCost_79</t>
+  </si>
+  <si>
+    <t>Dcost 79</t>
+  </si>
+  <si>
+    <t>DCost_80</t>
+  </si>
+  <si>
+    <t>Dcost 80</t>
+  </si>
+  <si>
+    <t>DCost_81</t>
+  </si>
+  <si>
+    <t>Dcost 81</t>
+  </si>
+  <si>
+    <t>DCost_82</t>
+  </si>
+  <si>
+    <t>Dcost 82</t>
+  </si>
+  <si>
+    <t>DCost_83</t>
+  </si>
+  <si>
+    <t>Dcost 83</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3662,6 +4170,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3671,7 +4187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3694,11 +4210,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3720,6 +4273,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6946,6 +7511,1702 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E448E42-872F-0C47-B75E-0226F73A7EB7}">
+  <dimension ref="A1:F84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E29" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E31" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E33" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="13">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E38" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="13">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E39" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="13">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E40" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="13">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E41" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="13">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E42" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="13">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E43" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="13">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E45" t="s">
+        <v>173</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="13">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E46" t="s">
+        <v>174</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="13">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E47" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="13">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E48" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="13">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E49" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="13">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E51" t="s">
+        <v>179</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="13">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E52" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="13">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E53" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="13">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E54" t="s">
+        <v>182</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="13">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E55" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="13">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E56" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="13">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E57" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="13">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E58" t="s">
+        <v>186</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="13">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E59" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="13">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="13">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E61" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="13">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E62" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="13">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E63" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="13">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E64" t="s">
+        <v>192</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="13">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E65" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="13">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="13">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E67" t="s">
+        <v>195</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="13">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E68" t="s">
+        <v>196</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="13">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E69" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="13">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E70" t="s">
+        <v>198</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="13">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E71" t="s">
+        <v>199</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="13">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E72" t="s">
+        <v>200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="13">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E73" t="s">
+        <v>201</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="13">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E74" t="s">
+        <v>202</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="13">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E75" t="s">
+        <v>203</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="13">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E76" t="s">
+        <v>204</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="13">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E77" t="s">
+        <v>205</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="13">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E78" t="s">
+        <v>206</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="13">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E79" t="s">
+        <v>207</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="13">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E80" t="s">
+        <v>208</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="13">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E81" t="s">
+        <v>209</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="13">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E82" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="13">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E83" t="s">
+        <v>211</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="13">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E84" t="s">
+        <v>212</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N141"/>
@@ -12748,16 +15009,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -12791,8 +15052,11 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="10" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -12823,8 +15087,11 @@
       <c r="J2">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12855,8 +15122,11 @@
       <c r="J3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -12887,8 +15157,11 @@
       <c r="J4">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12919,8 +15192,11 @@
       <c r="J5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -12951,8 +15227,11 @@
       <c r="J6">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12983,8 +15262,11 @@
       <c r="J7">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -13015,8 +15297,11 @@
       <c r="J8">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -13047,8 +15332,11 @@
       <c r="J9">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -13079,8 +15367,11 @@
       <c r="J10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -13111,8 +15402,11 @@
       <c r="J11">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -13143,8 +15437,11 @@
       <c r="J12">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -13175,8 +15472,11 @@
       <c r="J13">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -13207,8 +15507,11 @@
       <c r="J14">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -13239,8 +15542,11 @@
       <c r="J15">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -13271,8 +15577,11 @@
       <c r="J16">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -13303,8 +15612,11 @@
       <c r="J17">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -13335,8 +15647,11 @@
       <c r="J18">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -13367,8 +15682,11 @@
       <c r="J19">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -13399,8 +15717,11 @@
       <c r="J20">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -13431,8 +15752,11 @@
       <c r="J21">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -13463,8 +15787,11 @@
       <c r="J22">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -13495,8 +15822,11 @@
       <c r="J23">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -13527,8 +15857,11 @@
       <c r="J24">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -13559,8 +15892,11 @@
       <c r="J25">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -13591,8 +15927,11 @@
       <c r="J26">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -13623,8 +15962,11 @@
       <c r="J27">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -13655,8 +15997,11 @@
       <c r="J28">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -13687,8 +16032,11 @@
       <c r="J29">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -13719,8 +16067,11 @@
       <c r="J30">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -13751,8 +16102,11 @@
       <c r="J31">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -13783,8 +16137,11 @@
       <c r="J32">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -13815,8 +16172,11 @@
       <c r="J33">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -13847,8 +16207,11 @@
       <c r="J34">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -13879,8 +16242,11 @@
       <c r="J35">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -13911,8 +16277,11 @@
       <c r="J36">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -13943,8 +16312,11 @@
       <c r="J37">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -13975,8 +16347,11 @@
       <c r="J38">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -14007,8 +16382,11 @@
       <c r="J39">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -14039,8 +16417,11 @@
       <c r="J40">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -14071,8 +16452,11 @@
       <c r="J41">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -14103,8 +16487,11 @@
       <c r="J42">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -14135,8 +16522,11 @@
       <c r="J43">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -14167,8 +16557,11 @@
       <c r="J44">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -14199,8 +16592,11 @@
       <c r="J45">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -14231,8 +16627,11 @@
       <c r="J46">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -14263,8 +16662,11 @@
       <c r="J47">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -14295,8 +16697,11 @@
       <c r="J48">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -14327,8 +16732,11 @@
       <c r="J49">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -14359,8 +16767,11 @@
       <c r="J50">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -14391,8 +16802,11 @@
       <c r="J51">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -14423,8 +16837,11 @@
       <c r="J52">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -14455,8 +16872,11 @@
       <c r="J53">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -14487,8 +16907,11 @@
       <c r="J54">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -14519,8 +16942,11 @@
       <c r="J55">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -14551,8 +16977,11 @@
       <c r="J56">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -14583,8 +17012,11 @@
       <c r="J57">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -14615,8 +17047,11 @@
       <c r="J58">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -14647,8 +17082,11 @@
       <c r="J59">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -14679,8 +17117,11 @@
       <c r="J60">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -14711,8 +17152,11 @@
       <c r="J61">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -14743,8 +17187,11 @@
       <c r="J62">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -14775,8 +17222,11 @@
       <c r="J63">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -14807,8 +17257,11 @@
       <c r="J64">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -14839,8 +17292,11 @@
       <c r="J65">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -14871,8 +17327,11 @@
       <c r="J66">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -14903,8 +17362,11 @@
       <c r="J67">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -14935,8 +17397,11 @@
       <c r="J68">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -14967,8 +17432,11 @@
       <c r="J69">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -14999,8 +17467,11 @@
       <c r="J70">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -15031,8 +17502,11 @@
       <c r="J71">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -15063,8 +17537,11 @@
       <c r="J72">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -15095,8 +17572,11 @@
       <c r="J73">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -15127,8 +17607,11 @@
       <c r="J74">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -15159,8 +17642,11 @@
       <c r="J75">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -15191,8 +17677,11 @@
       <c r="J76">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -15223,8 +17712,11 @@
       <c r="J77">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -15255,8 +17747,11 @@
       <c r="J78">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -15287,8 +17782,11 @@
       <c r="J79">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -15319,8 +17817,11 @@
       <c r="J80">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -15351,8 +17852,11 @@
       <c r="J81">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -15383,8 +17887,11 @@
       <c r="J82">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -15415,8 +17922,11 @@
       <c r="J83">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -15446,6 +17956,9 @@
       </c>
       <c r="J84">
         <v>0.8</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -41081,8 +43594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038AC594-54AF-9641-832D-E132AF85008E}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ams/cases/npcc/npcc_uced.xlsx
+++ b/ams/cases/npcc/npcc_uced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/npcc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/npcc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE437E0-3C10-C54F-918C-86F2CC599CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C1FF61-3B0C-574F-BE35-7E1460F1B5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="PV" sheetId="3" r:id="rId4"/>
     <sheet name="Slack" sheetId="4" r:id="rId5"/>
     <sheet name="Line" sheetId="5" r:id="rId6"/>
-    <sheet name="Region" sheetId="6" r:id="rId7"/>
+    <sheet name="Zone" sheetId="6" r:id="rId7"/>
     <sheet name="GCost" sheetId="7" r:id="rId8"/>
     <sheet name="EDTSlot" sheetId="9" r:id="rId9"/>
     <sheet name="UCTSlot" sheetId="10" r:id="rId10"/>
@@ -4274,7 +4274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7515,7 +7515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E448E42-872F-0C47-B75E-0226F73A7EB7}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -41804,7 +41804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
